--- a/nutriplan/alimentos.xlsx
+++ b/nutriplan/alimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daria\Desktop\Dev-Portfolio-1\nutriplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAE20BE-F3F7-4F42-B387-2048B65FA146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A7B1C4-DFDF-4B43-9835-92B9530D1A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="679" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="241">
   <si>
     <t>Proteinas</t>
   </si>
@@ -749,6 +749,21 @@
   </si>
   <si>
     <t>Azucar Mascabo</t>
+  </si>
+  <si>
+    <t>comida</t>
+  </si>
+  <si>
+    <t>Desayuno</t>
+  </si>
+  <si>
+    <t>Almuerzo</t>
+  </si>
+  <si>
+    <t>Merienda</t>
+  </si>
+  <si>
+    <t>Cena</t>
   </si>
 </sst>
 </file>
@@ -1085,11 +1100,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17880DE4-E55C-4658-B107-2FAE6C03BD2D}" name="Table1" displayName="Table1" ref="A1:G189" totalsRowShown="0">
-  <autoFilter ref="A1:G189" xr:uid="{17880DE4-E55C-4658-B107-2FAE6C03BD2D}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17880DE4-E55C-4658-B107-2FAE6C03BD2D}" name="Table1" displayName="Table1" ref="A1:H189" totalsRowShown="0">
+  <autoFilter ref="A1:H189" xr:uid="{17880DE4-E55C-4658-B107-2FAE6C03BD2D}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{64C8ADBC-929E-4E80-BAB6-EC20B932FE5C}" name="nombre"/>
     <tableColumn id="6" xr3:uid="{90DCA9CD-BD72-41FF-8D58-BDE36F423650}" name="categoria"/>
+    <tableColumn id="8" xr3:uid="{ED9FAE75-9237-4866-873E-07DD1D22E8C0}" name="comida"/>
     <tableColumn id="2" xr3:uid="{6F4A4FCD-4F7D-4E27-B905-C649BDDC70D9}" name="calorias"/>
     <tableColumn id="3" xr3:uid="{37C3B1AE-1E5C-4B62-B1EE-0DF95831E926}" name="hidratos"/>
     <tableColumn id="4" xr3:uid="{EF24F821-ED76-42E3-A7F5-37BE92B8B96D}" name="proteinas"/>
@@ -1298,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E344AB7C-0228-4BB7-BAC5-8ED7DEDCD093}">
-  <dimension ref="A1:G189"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1315,7 +1331,7 @@
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -1323,1644 +1339,1857 @@
         <v>208</v>
       </c>
       <c r="C1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" t="s">
         <v>204</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>205</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>206</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>207</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2">
         <v>884</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3">
         <v>892</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>99.06</v>
       </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4">
         <v>884</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5">
         <v>884</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6">
         <v>607</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>20.38</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>20.329999999999998</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>53.96</v>
       </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7">
         <v>579</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>21.55</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21.15</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>49.93</v>
       </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8">
         <v>628</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>16.7</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>14.95</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>60.75</v>
       </c>
-      <c r="G8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>210</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9">
         <v>160</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.1</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>22.46</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>7.06</v>
       </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>211</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10">
         <v>609</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>30.3</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>12.12</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>53.03</v>
       </c>
-      <c r="G10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11">
         <v>630</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>7</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
       </c>
       <c r="F11">
         <v>6</v>
       </c>
       <c r="G11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12">
         <v>636</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>22</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>26</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>50</v>
       </c>
-      <c r="G12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13">
         <v>567</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>16.13</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>25.8</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>49.24</v>
       </c>
-      <c r="G13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>42</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14">
         <v>599</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>15.26</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>28.03</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>52.5</v>
       </c>
-      <c r="G14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15">
         <v>607</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>21</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>20</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>54</v>
       </c>
-      <c r="G15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>44</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16">
         <v>716</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>12.83</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>7.79</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>76.08</v>
       </c>
-      <c r="G16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17">
         <v>160</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>8.5299999999999994</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>14.66</v>
       </c>
-      <c r="G17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18">
         <v>588</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>20</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>25</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>50</v>
       </c>
-      <c r="G18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>223</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19">
         <v>406</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>46.06</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>23.18</v>
       </c>
-      <c r="G19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>48</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20">
         <v>534</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>28.88</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>18.29</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>42.16</v>
       </c>
-      <c r="G20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21">
         <v>534</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>29</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>19</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>42</v>
       </c>
-      <c r="G21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>217</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22">
         <v>582</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>24.07</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>19.329999999999998</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>49.8</v>
       </c>
-      <c r="G22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>214</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23">
         <v>57</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>14.49</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.74</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.33</v>
       </c>
-      <c r="G23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24">
         <v>89</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>22.6</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1.08</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.34</v>
       </c>
-      <c r="G24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25">
         <v>41</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>10</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26">
         <v>23</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>3.67</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2.13</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.52</v>
       </c>
-      <c r="G26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27">
         <v>354</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>10</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>3</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>42</v>
       </c>
-      <c r="G27">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>215</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>239</v>
+      </c>
+      <c r="D28">
         <v>282</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>75</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>2</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
       <c r="G28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>240</v>
+      </c>
+      <c r="D29">
         <v>86</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>3.69</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>11.9</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>2.2400000000000002</v>
       </c>
-      <c r="G29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>237</v>
+      </c>
+      <c r="D30">
         <v>40</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>13</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1.2</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.65</v>
       </c>
-      <c r="G30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>238</v>
+      </c>
+      <c r="D31">
         <v>35</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>9.1300000000000008</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.43</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.11</v>
       </c>
-      <c r="G31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>57</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32">
         <v>74</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>19</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
       <c r="G32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>58</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
+        <v>240</v>
+      </c>
+      <c r="D33">
         <v>61</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>15</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>1</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
       <c r="G33">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>226</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34">
         <v>22</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>7</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
       <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>0.2</v>
       </c>
-      <c r="G34">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>60</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="s">
+        <v>238</v>
+      </c>
+      <c r="D35">
         <v>53</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>13</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>1</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.2</v>
       </c>
-      <c r="G35">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>61</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="s">
+        <v>239</v>
+      </c>
+      <c r="D36">
         <v>53</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>13.34</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.81</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.31</v>
       </c>
-      <c r="G36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>62</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D37">
         <v>50</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>11</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.85</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1</v>
       </c>
-      <c r="G37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>63</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38">
         <v>55</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>14</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>227</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="s">
+        <v>238</v>
+      </c>
+      <c r="D39">
         <v>84</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>22</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.4</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
       <c r="G39">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>65</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40">
         <v>64</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>15.67</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>1.18</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>0.43</v>
       </c>
-      <c r="G40">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>66</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="s">
+        <v>240</v>
+      </c>
+      <c r="D41">
         <v>47</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>12</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>1</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
       <c r="G41">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>67</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42">
         <v>12</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>2.16</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>0.59</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.16</v>
       </c>
-      <c r="G42">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>212</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43">
         <v>50</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>13</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>1</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>0.3</v>
       </c>
-      <c r="G43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>69</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44">
         <v>38</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>10</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>1</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
       <c r="G44">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>70</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45">
         <v>28</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>6</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>1</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
       <c r="G45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>71</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="s">
+        <v>237</v>
+      </c>
+      <c r="D46">
         <v>67</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>17</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>16</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47">
         <v>56</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>5</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>2</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
       <c r="G47">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>72</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="s">
+        <v>239</v>
+      </c>
+      <c r="D48">
         <v>119</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>20</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>2</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>0.5</v>
       </c>
-      <c r="G48">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>73</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="s">
+        <v>240</v>
+      </c>
+      <c r="D49">
         <v>23</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>7</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>3.15</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>0.64</v>
       </c>
-      <c r="G49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>74</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="s">
+        <v>237</v>
+      </c>
+      <c r="D50">
         <v>23</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>2.9</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>0.2</v>
       </c>
-      <c r="G50">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>75</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="s">
+        <v>238</v>
+      </c>
+      <c r="D51">
         <v>16</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>2.97</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>0.69</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>0.17</v>
       </c>
-      <c r="G51">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>76</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="s">
+        <v>239</v>
+      </c>
+      <c r="D52">
         <v>81</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>14</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>5</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
       <c r="G52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>77</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="s">
+        <v>240</v>
+      </c>
+      <c r="D53">
         <v>90</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>21</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>2</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>0.3</v>
       </c>
-      <c r="G53">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>78</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54">
         <v>25</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>6</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>1</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>0.18</v>
       </c>
-      <c r="G54">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>79</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="s">
+        <v>238</v>
+      </c>
+      <c r="D55">
         <v>32</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>5.5</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>2.6</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>0.7</v>
       </c>
-      <c r="G55">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>228</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="s">
+        <v>239</v>
+      </c>
+      <c r="D56">
         <v>34</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>7</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>3</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>0.3</v>
       </c>
-      <c r="G56">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>81</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="s">
+        <v>240</v>
+      </c>
+      <c r="D57">
         <v>34</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>6.64</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>2.82</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>0.37</v>
       </c>
-      <c r="G57">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>82</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="s">
+        <v>237</v>
+      </c>
+      <c r="D58">
         <v>28</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>5</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>1</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>0.2</v>
       </c>
-      <c r="G58">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>83</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="s">
+        <v>238</v>
+      </c>
+      <c r="D59">
         <v>78</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>21</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>84</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="s">
+        <v>239</v>
+      </c>
+      <c r="D60">
         <v>40</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>9</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>1</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
       <c r="G60">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>213</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="s">
+        <v>240</v>
+      </c>
+      <c r="D61">
         <v>84</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>3</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>86</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="s">
+        <v>237</v>
+      </c>
+      <c r="D62">
         <v>67</v>
       </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
       <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
         <v>15</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>0.8</v>
       </c>
-      <c r="G62">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>87</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="s">
+        <v>238</v>
+      </c>
+      <c r="D63">
         <v>23</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>4.08</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>1.82</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>0.45</v>
       </c>
-      <c r="G63">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>88</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="s">
+        <v>239</v>
+      </c>
+      <c r="D64">
         <v>120</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>33</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>4</v>
       </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
       <c r="G64">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>216</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="s">
+        <v>240</v>
+      </c>
+      <c r="D65">
         <v>20</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>4</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>2</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>0.42</v>
       </c>
-      <c r="G65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>90</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="s">
+        <v>237</v>
+      </c>
+      <c r="D66">
         <v>20</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>2</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>3</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>1</v>
       </c>
-      <c r="G66">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>91</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="s">
+        <v>238</v>
+      </c>
+      <c r="D67">
         <v>61</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>4.8</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>3.15</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>3.25</v>
       </c>
-      <c r="G67">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>92</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="s">
+        <v>239</v>
+      </c>
+      <c r="D68">
         <v>340</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>40</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>23</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>2.4300000000000002</v>
       </c>
-      <c r="G68">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>93</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="s">
+        <v>240</v>
+      </c>
+      <c r="D69">
         <v>24</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>6</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>1</v>
       </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
       <c r="G69">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>94</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="s">
+        <v>237</v>
+      </c>
+      <c r="D70">
         <v>28</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>5</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>1</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>3</v>
       </c>
-      <c r="G70">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>95</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="s">
+        <v>238</v>
+      </c>
+      <c r="D71">
         <v>83</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>18</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>3</v>
       </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
       <c r="G71">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>96</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="s">
+        <v>239</v>
+      </c>
+      <c r="D72">
         <v>30</v>
       </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
       <c r="E72">
         <v>0</v>
       </c>
@@ -2968,2207 +3197,2495 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>97</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="s">
+        <v>240</v>
+      </c>
+      <c r="D73">
         <v>43</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>6</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>3</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>1</v>
       </c>
-      <c r="G73">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>98</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="s">
+        <v>237</v>
+      </c>
+      <c r="D74">
         <v>30</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>3</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>2</v>
       </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
       <c r="G74">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>99</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="s">
+        <v>238</v>
+      </c>
+      <c r="D75">
         <v>43</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>10</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>2</v>
       </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
       <c r="G75">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>100</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="s">
+        <v>239</v>
+      </c>
+      <c r="D76">
         <v>44</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>9.9</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>1.67</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>0.18</v>
       </c>
-      <c r="G76">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>101</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="s">
+        <v>240</v>
+      </c>
+      <c r="D77">
         <v>114</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>25</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>0.95</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>0.11</v>
       </c>
-      <c r="G77">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>102</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78">
         <v>41</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>10</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>1</v>
       </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
       <c r="G78">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>103</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79">
         <v>17</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>4</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>1</v>
       </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
       <c r="G79">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>104</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="s">
+        <v>239</v>
+      </c>
+      <c r="D80">
         <v>26</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>7</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>1</v>
       </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
       <c r="G80">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>105</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="s">
+        <v>240</v>
+      </c>
+      <c r="D81">
         <v>39</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>5.72</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>1.65</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G81">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>9</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="s">
+        <v>237</v>
+      </c>
+      <c r="D82">
         <v>332</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>76</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>7</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>0.7</v>
       </c>
-      <c r="G82">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>107</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="s">
+        <v>238</v>
+      </c>
+      <c r="D83">
         <v>357</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>77</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>7</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>2</v>
       </c>
-      <c r="G83">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>108</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="s">
+        <v>239</v>
+      </c>
+      <c r="D84">
         <v>350</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>74</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>7</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>2</v>
       </c>
-      <c r="G84">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>109</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="s">
+        <v>240</v>
+      </c>
+      <c r="D85">
         <v>379</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>71</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>13.15</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>5</v>
       </c>
-      <c r="G85">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>224</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="s">
+        <v>237</v>
+      </c>
+      <c r="D86">
         <v>361</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>80.599999999999994</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>7</v>
       </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
       <c r="G86">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>111</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="s">
+        <v>238</v>
+      </c>
+      <c r="D87">
         <v>344</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>68</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>12</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>2</v>
       </c>
-      <c r="G87">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>112</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="s">
+        <v>239</v>
+      </c>
+      <c r="D88">
         <v>316</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>66.599999999999994</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>6.6</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>3.3</v>
       </c>
-      <c r="G88">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>113</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="s">
+        <v>240</v>
+      </c>
+      <c r="D89">
         <v>331</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>36</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>18</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>7</v>
       </c>
-      <c r="G89">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>114</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="s">
+        <v>237</v>
+      </c>
+      <c r="D90">
         <v>403</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>39</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>37</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>10</v>
       </c>
-      <c r="G90">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>17</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="s">
+        <v>238</v>
+      </c>
+      <c r="D91">
         <v>383</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>66</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>15.21</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>7</v>
       </c>
-      <c r="G91">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>115</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="s">
+        <v>239</v>
+      </c>
+      <c r="D92">
         <v>364</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>73</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>8</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>2</v>
       </c>
-      <c r="G92">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>225</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="s">
+        <v>240</v>
+      </c>
+      <c r="D93">
         <v>370</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>68</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>8</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>2</v>
       </c>
-      <c r="G93">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>117</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="s">
+        <v>237</v>
+      </c>
+      <c r="D94">
         <v>288</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>75</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>10</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>2</v>
       </c>
-      <c r="G94">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>118</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="s">
+        <v>238</v>
+      </c>
+      <c r="D95">
         <v>80</v>
-      </c>
-      <c r="D95">
-        <v>2</v>
       </c>
       <c r="E95">
         <v>2</v>
       </c>
       <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
         <v>7</v>
       </c>
-      <c r="G95">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>119</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="s">
+        <v>239</v>
+      </c>
+      <c r="D96">
         <v>251</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>61</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>8</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>2</v>
       </c>
-      <c r="G96">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>120</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="s">
+        <v>240</v>
+      </c>
+      <c r="D97">
         <v>231</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>49.1</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>7</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>1.04</v>
       </c>
-      <c r="G97">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>121</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="s">
+        <v>237</v>
+      </c>
+      <c r="D98">
         <v>344</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>40</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>17</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>7</v>
       </c>
-      <c r="G98">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>122</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="s">
+        <v>238</v>
+      </c>
+      <c r="D99">
         <v>272</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>61.21</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>3</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>1.32</v>
       </c>
-      <c r="G99">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H99">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>123</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="s">
+        <v>239</v>
+      </c>
+      <c r="D100">
         <v>346</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>62</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>22</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>2</v>
       </c>
-      <c r="G100">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>124</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="s">
+        <v>240</v>
+      </c>
+      <c r="D101">
         <v>346</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>62</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>22</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>2</v>
       </c>
-      <c r="G101">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>125</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="s">
+        <v>237</v>
+      </c>
+      <c r="D102">
         <v>374</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>69</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>13</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>6</v>
       </c>
-      <c r="G102">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>126</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="s">
+        <v>238</v>
+      </c>
+      <c r="D103">
         <v>246</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>66</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>17</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>7</v>
       </c>
-      <c r="G103">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>127</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="s">
+        <v>239</v>
+      </c>
+      <c r="D104">
         <v>340</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>35</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>56</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>1</v>
       </c>
-      <c r="G104">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>128</v>
       </c>
       <c r="B105" t="s">
         <v>0</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="s">
+        <v>240</v>
+      </c>
+      <c r="D105">
         <v>142</v>
       </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
       <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
         <v>28.89</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>9.7100000000000009</v>
       </c>
-      <c r="G105">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>232</v>
       </c>
       <c r="B106" t="s">
         <v>0</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="s">
         <v>237</v>
       </c>
       <c r="D106">
+        <v>237</v>
+      </c>
+      <c r="E106">
         <v>1.7</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>21.58</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>8.2100000000000009</v>
       </c>
-      <c r="G106">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H106">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>233</v>
       </c>
       <c r="B107" t="s">
         <v>0</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="s">
+        <v>238</v>
+      </c>
+      <c r="D107">
         <v>122</v>
       </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
       <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
         <v>26</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>2</v>
       </c>
-      <c r="G107">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H107">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>129</v>
       </c>
       <c r="B108" t="s">
         <v>0</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="s">
+        <v>239</v>
+      </c>
+      <c r="D108">
         <v>62</v>
       </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
       <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
         <v>11</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>2</v>
       </c>
-      <c r="G108">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H108">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>25</v>
       </c>
       <c r="B109" t="s">
         <v>0</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="s">
+        <v>240</v>
+      </c>
+      <c r="D109">
         <v>235</v>
       </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
       <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
         <v>18</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>17</v>
       </c>
-      <c r="G109">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>130</v>
       </c>
       <c r="B110" t="s">
         <v>0</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="s">
+        <v>237</v>
+      </c>
+      <c r="D110">
         <v>150</v>
       </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
       <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
         <v>15</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>10</v>
       </c>
-      <c r="G110">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H110">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>131</v>
       </c>
       <c r="B111" t="s">
         <v>0</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="s">
+        <v>238</v>
+      </c>
+      <c r="D111">
         <v>240</v>
       </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
       <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
         <v>23.24</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>13.28</v>
       </c>
-      <c r="G111">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H111">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>132</v>
       </c>
       <c r="B112" t="s">
         <v>0</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="s">
+        <v>239</v>
+      </c>
+      <c r="D112">
         <v>50</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>9</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>1</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>2</v>
       </c>
-      <c r="G112">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>133</v>
       </c>
       <c r="B113" t="s">
         <v>0</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="s">
+        <v>240</v>
+      </c>
+      <c r="D113">
         <v>130</v>
       </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
       <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
         <v>20</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>7</v>
       </c>
-      <c r="G113">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H113">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>134</v>
       </c>
       <c r="B114" t="s">
         <v>0</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="s">
+        <v>237</v>
+      </c>
+      <c r="D114">
         <v>197</v>
       </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
       <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
         <v>20</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>10</v>
       </c>
-      <c r="G114">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H114">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>135</v>
       </c>
       <c r="B115" t="s">
         <v>0</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="s">
+        <v>238</v>
+      </c>
+      <c r="D115">
         <v>236</v>
       </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
       <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
         <v>28</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>6</v>
       </c>
-      <c r="G115">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H115">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>136</v>
       </c>
       <c r="B116" t="s">
         <v>0</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="s">
+        <v>239</v>
+      </c>
+      <c r="D116">
         <v>123</v>
       </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
       <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
         <v>20</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>5</v>
       </c>
-      <c r="G116">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>137</v>
       </c>
       <c r="B117" t="s">
         <v>0</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="s">
+        <v>240</v>
+      </c>
+      <c r="D117">
         <v>448</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>2</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>22</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>39</v>
       </c>
-      <c r="G117">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H117">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>12</v>
       </c>
       <c r="B118" t="s">
         <v>0</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="s">
+        <v>237</v>
+      </c>
+      <c r="D118">
         <v>231</v>
       </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
       <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
         <v>24</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>14</v>
       </c>
-      <c r="G118">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H118">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>10</v>
       </c>
       <c r="B119" t="s">
         <v>0</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="s">
+        <v>238</v>
+      </c>
+      <c r="D119">
         <v>52</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>0.76</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>11</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>0.2</v>
       </c>
-      <c r="G119">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H119">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>138</v>
       </c>
       <c r="B120" t="s">
         <v>0</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="s">
+        <v>239</v>
+      </c>
+      <c r="D120">
         <v>64</v>
       </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
       <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
         <v>12</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>1.8</v>
       </c>
-      <c r="G120">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H120">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>11</v>
       </c>
       <c r="B121" t="s">
         <v>0</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="s">
+        <v>240</v>
+      </c>
+      <c r="D121">
         <v>150</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <v>6</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>12</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>10</v>
       </c>
-      <c r="G121">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H121">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>229</v>
       </c>
       <c r="B122" t="s">
         <v>0</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="s">
+        <v>237</v>
+      </c>
+      <c r="D122">
         <v>145</v>
       </c>
-      <c r="D122">
+      <c r="E122">
         <v>1</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>7</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>1</v>
       </c>
-      <c r="G122">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H122">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>140</v>
       </c>
       <c r="B123" t="s">
         <v>0</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="s">
+        <v>238</v>
+      </c>
+      <c r="D123">
         <v>160</v>
       </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
       <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
         <v>17</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>13</v>
       </c>
-      <c r="G123">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H123">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>230</v>
       </c>
       <c r="B124" t="s">
         <v>0</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="s">
+        <v>239</v>
+      </c>
+      <c r="D124">
         <v>191</v>
       </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
       <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
         <v>25</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>10</v>
       </c>
-      <c r="G124">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H124">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>142</v>
       </c>
       <c r="B125" t="s">
         <v>0</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="s">
+        <v>240</v>
+      </c>
+      <c r="D125">
         <v>110</v>
       </c>
-      <c r="D125">
+      <c r="E125">
         <v>2</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>24</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>1</v>
       </c>
-      <c r="G125">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H125">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>143</v>
       </c>
       <c r="B126" t="s">
         <v>0</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="s">
+        <v>237</v>
+      </c>
+      <c r="D126">
         <v>224</v>
       </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
       <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
         <v>27</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>14</v>
       </c>
-      <c r="G126">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H126">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>144</v>
       </c>
       <c r="B127" t="s">
         <v>0</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="s">
+        <v>238</v>
+      </c>
+      <c r="D127">
         <v>390</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>11</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>4</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>37</v>
       </c>
-      <c r="G127">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H127">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>145</v>
       </c>
       <c r="B128" t="s">
         <v>0</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="s">
+        <v>239</v>
+      </c>
+      <c r="D128">
         <v>379</v>
       </c>
-      <c r="D128">
+      <c r="E128">
         <v>1.29</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>14.6</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>34.5</v>
       </c>
-      <c r="G128">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H128">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>146</v>
       </c>
       <c r="B129" t="s">
         <v>0</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="s">
+        <v>240</v>
+      </c>
+      <c r="D129">
         <v>151</v>
       </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
       <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
         <v>22</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>7</v>
       </c>
-      <c r="G129">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H129">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>147</v>
       </c>
       <c r="B130" t="s">
         <v>0</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="s">
+        <v>237</v>
+      </c>
+      <c r="D130">
         <v>115</v>
       </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
       <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
         <v>22</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>3</v>
       </c>
-      <c r="G130">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>148</v>
       </c>
       <c r="B131" t="s">
         <v>0</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="s">
+        <v>238</v>
+      </c>
+      <c r="D131">
         <v>125</v>
       </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
       <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
         <v>20</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>5</v>
       </c>
-      <c r="G131">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H131">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>149</v>
       </c>
       <c r="B132" t="s">
         <v>0</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="s">
+        <v>239</v>
+      </c>
+      <c r="D132">
         <v>94</v>
       </c>
-      <c r="D132">
+      <c r="E132">
         <v>1</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>18</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>2</v>
       </c>
-      <c r="G132">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H132">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>150</v>
       </c>
       <c r="B133" t="s">
         <v>0</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="s">
+        <v>240</v>
+      </c>
+      <c r="D133">
         <v>230</v>
       </c>
-      <c r="D133">
+      <c r="E133">
         <v>0.36</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>26</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>13</v>
       </c>
-      <c r="G133">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H133">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>151</v>
       </c>
       <c r="B134" t="s">
         <v>0</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="s">
+        <v>237</v>
+      </c>
+      <c r="D134">
         <v>160</v>
       </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
       <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
         <v>20</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>8</v>
       </c>
-      <c r="G134">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H134">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>152</v>
       </c>
       <c r="B135" t="s">
         <v>0</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="s">
+        <v>238</v>
+      </c>
+      <c r="D135">
         <v>145</v>
       </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
       <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
         <v>22</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>6</v>
       </c>
-      <c r="G135">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H135">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>153</v>
       </c>
       <c r="B136" t="s">
         <v>0</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="s">
+        <v>239</v>
+      </c>
+      <c r="D136">
         <v>81</v>
       </c>
-      <c r="D136">
+      <c r="E136">
         <v>1</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>17</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>1</v>
       </c>
-      <c r="G136">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H136">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>154</v>
       </c>
       <c r="B137" t="s">
         <v>0</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="s">
+        <v>240</v>
+      </c>
+      <c r="D137">
         <v>477</v>
       </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
       <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
         <v>19</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>15</v>
       </c>
-      <c r="G137">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H137">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>231</v>
       </c>
       <c r="B138" t="s">
         <v>0</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="s">
+        <v>237</v>
+      </c>
+      <c r="D138">
         <v>182</v>
       </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
       <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
         <v>18</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <v>4</v>
       </c>
-      <c r="G138">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H138">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>156</v>
       </c>
       <c r="B139" t="s">
         <v>0</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="s">
+        <v>238</v>
+      </c>
+      <c r="D139">
         <v>350</v>
       </c>
-      <c r="D139">
+      <c r="E139">
         <v>2</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>84</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>2</v>
       </c>
-      <c r="G139">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H139">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>157</v>
       </c>
       <c r="B140" t="s">
         <v>0</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="s">
+        <v>239</v>
+      </c>
+      <c r="D140">
         <v>121</v>
       </c>
-      <c r="D140">
+      <c r="E140">
         <v>2</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>17</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>20</v>
       </c>
-      <c r="G140">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H140">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>158</v>
       </c>
       <c r="B141" t="s">
         <v>0</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="s">
+        <v>240</v>
+      </c>
+      <c r="D141">
         <v>135</v>
       </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
       <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
         <v>19</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>6</v>
       </c>
-      <c r="G141">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H141">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>159</v>
       </c>
       <c r="B142" t="s">
         <v>0</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="s">
+        <v>237</v>
+      </c>
+      <c r="D142">
         <v>322</v>
       </c>
-      <c r="D142">
+      <c r="E142">
         <v>4</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>16</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>27</v>
       </c>
-      <c r="G142">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H142">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>160</v>
       </c>
       <c r="B143" t="s">
         <v>13</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="s">
+        <v>238</v>
+      </c>
+      <c r="D143">
         <v>60</v>
       </c>
-      <c r="D143">
+      <c r="E143">
         <v>8</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>1</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>3</v>
       </c>
-      <c r="G143">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H143">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>161</v>
       </c>
       <c r="B144" t="s">
         <v>13</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="s">
+        <v>239</v>
+      </c>
+      <c r="D144">
         <v>24</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
       </c>
       <c r="E144">
         <v>1</v>
       </c>
       <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
         <v>3</v>
       </c>
-      <c r="G144">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>22</v>
       </c>
       <c r="B145" t="s">
         <v>13</v>
       </c>
-      <c r="C145">
+      <c r="C145" t="s">
+        <v>240</v>
+      </c>
+      <c r="D145">
         <v>45</v>
       </c>
-      <c r="D145">
+      <c r="E145">
         <v>3</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>4</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>1</v>
       </c>
-      <c r="G145">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H145">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>26</v>
       </c>
       <c r="B146" t="s">
         <v>13</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="s">
+        <v>237</v>
+      </c>
+      <c r="D146">
         <v>31</v>
       </c>
-      <c r="D146">
+      <c r="E146">
         <v>4</v>
       </c>
-      <c r="E146">
+      <c r="F146">
         <v>3</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>0.3</v>
       </c>
-      <c r="G146">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H146">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>162</v>
       </c>
       <c r="B147" t="s">
         <v>13</v>
       </c>
-      <c r="C147">
+      <c r="C147" t="s">
+        <v>238</v>
+      </c>
+      <c r="D147">
         <v>496</v>
       </c>
-      <c r="D147">
+      <c r="E147">
         <v>38.4</v>
       </c>
-      <c r="E147">
+      <c r="F147">
         <v>26.3</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <v>26.7</v>
       </c>
-      <c r="G147">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H147">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>163</v>
       </c>
       <c r="B148" t="s">
         <v>13</v>
       </c>
-      <c r="C148">
+      <c r="C148" t="s">
+        <v>239</v>
+      </c>
+      <c r="D148">
         <v>62</v>
       </c>
-      <c r="D148">
+      <c r="E148">
         <v>5</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>3</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <v>4</v>
       </c>
-      <c r="G148">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>164</v>
       </c>
       <c r="B149" t="s">
         <v>13</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="s">
+        <v>240</v>
+      </c>
+      <c r="D149">
         <v>63</v>
       </c>
-      <c r="D149">
+      <c r="E149">
         <v>4.5</v>
       </c>
-      <c r="E149">
+      <c r="F149">
         <v>3</v>
       </c>
-      <c r="F149">
+      <c r="G149">
         <v>3.5</v>
       </c>
-      <c r="G149">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H149">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>165</v>
       </c>
       <c r="B150" t="s">
         <v>13</v>
       </c>
-      <c r="C150">
+      <c r="C150" t="s">
+        <v>237</v>
+      </c>
+      <c r="D150">
         <v>130</v>
       </c>
-      <c r="D150">
+      <c r="E150">
         <v>7.6</v>
       </c>
-      <c r="E150">
+      <c r="F150">
         <v>8.6</v>
       </c>
-      <c r="F150">
+      <c r="G150">
         <v>6.9</v>
       </c>
-      <c r="G150">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H150">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>166</v>
       </c>
       <c r="B151" t="s">
         <v>13</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="s">
+        <v>238</v>
+      </c>
+      <c r="D151">
         <v>392</v>
       </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
       <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
         <v>26</v>
       </c>
-      <c r="F151">
+      <c r="G151">
         <v>32</v>
       </c>
-      <c r="G151">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H151">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>167</v>
       </c>
       <c r="B152" t="s">
         <v>13</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="s">
+        <v>239</v>
+      </c>
+      <c r="D152">
         <v>328</v>
       </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
       <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
         <v>18</v>
       </c>
-      <c r="F152">
+      <c r="G152">
         <v>28</v>
       </c>
-      <c r="G152">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H152">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>168</v>
       </c>
       <c r="B153" t="s">
         <v>13</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="s">
+        <v>240</v>
+      </c>
+      <c r="D153">
         <v>387</v>
       </c>
-      <c r="D153">
+      <c r="E153">
         <v>1</v>
       </c>
-      <c r="E153">
+      <c r="F153">
         <v>36</v>
       </c>
-      <c r="F153">
+      <c r="G153">
         <v>27</v>
       </c>
-      <c r="G153">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H153">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>169</v>
       </c>
       <c r="B154" t="s">
         <v>13</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="s">
+        <v>237</v>
+      </c>
+      <c r="D154">
         <v>265</v>
       </c>
-      <c r="D154">
+      <c r="E154">
         <v>4</v>
       </c>
-      <c r="E154">
+      <c r="F154">
         <v>14</v>
       </c>
-      <c r="F154">
+      <c r="G154">
         <v>21</v>
       </c>
-      <c r="G154">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H154">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>170</v>
       </c>
       <c r="B155" t="s">
         <v>13</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="s">
+        <v>238</v>
+      </c>
+      <c r="D155">
         <v>356</v>
       </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
       <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
         <v>22</v>
       </c>
-      <c r="F155">
+      <c r="G155">
         <v>28</v>
       </c>
-      <c r="G155">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H155">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>171</v>
       </c>
       <c r="B156" t="s">
         <v>13</v>
       </c>
-      <c r="C156">
+      <c r="C156" t="s">
+        <v>239</v>
+      </c>
+      <c r="D156">
         <v>186</v>
       </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
       <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
         <v>23</v>
       </c>
-      <c r="F156">
+      <c r="G156">
         <v>9.9</v>
       </c>
-      <c r="G156">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H156">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>172</v>
       </c>
       <c r="B157" t="s">
         <v>13</v>
       </c>
-      <c r="C157">
+      <c r="C157" t="s">
+        <v>240</v>
+      </c>
+      <c r="D157">
         <v>260</v>
       </c>
-      <c r="D157">
+      <c r="E157">
         <v>3</v>
       </c>
-      <c r="E157">
+      <c r="F157">
         <v>10</v>
       </c>
-      <c r="F157">
+      <c r="G157">
         <v>22</v>
       </c>
-      <c r="G157">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H157">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>173</v>
       </c>
       <c r="B158" t="s">
         <v>13</v>
       </c>
-      <c r="C158">
+      <c r="C158" t="s">
+        <v>237</v>
+      </c>
+      <c r="D158">
         <v>369</v>
       </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
       <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
         <v>22</v>
       </c>
-      <c r="F158">
+      <c r="G158">
         <v>31</v>
       </c>
-      <c r="G158">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H158">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>174</v>
       </c>
       <c r="B159" t="s">
         <v>13</v>
       </c>
-      <c r="C159">
+      <c r="C159" t="s">
+        <v>238</v>
+      </c>
+      <c r="D159">
         <v>47</v>
       </c>
-      <c r="D159">
+      <c r="E159">
         <v>8</v>
       </c>
-      <c r="E159">
+      <c r="F159">
         <v>3</v>
       </c>
-      <c r="F159">
+      <c r="G159">
         <v>0.3</v>
       </c>
-      <c r="G159">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H159">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>18</v>
       </c>
       <c r="B160" t="s">
         <v>13</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="s">
+        <v>239</v>
+      </c>
+      <c r="D160">
         <v>106</v>
       </c>
-      <c r="D160">
+      <c r="E160">
         <v>10</v>
       </c>
-      <c r="E160">
+      <c r="F160">
         <v>13</v>
       </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
       <c r="G160">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>175</v>
       </c>
       <c r="B161" t="s">
         <v>13</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="s">
+        <v>240</v>
+      </c>
+      <c r="D161">
         <v>83</v>
       </c>
-      <c r="D161">
+      <c r="E161">
         <v>11</v>
       </c>
-      <c r="E161">
+      <c r="F161">
         <v>4</v>
       </c>
-      <c r="F161">
+      <c r="G161">
         <v>3.25</v>
       </c>
-      <c r="G161">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H161">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>176</v>
       </c>
       <c r="B162" t="s">
         <v>14</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="s">
+        <v>237</v>
+      </c>
+      <c r="D162">
         <v>210</v>
       </c>
-      <c r="D162">
+      <c r="E162">
         <v>13</v>
       </c>
-      <c r="E162">
+      <c r="F162">
         <v>1</v>
       </c>
-      <c r="F162">
+      <c r="G162">
         <v>21</v>
       </c>
-      <c r="G162">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H162">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>19</v>
       </c>
       <c r="B163" t="s">
         <v>14</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="s">
+        <v>238</v>
+      </c>
+      <c r="D163">
         <v>197</v>
       </c>
-      <c r="D163">
-        <v>0</v>
-      </c>
       <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
         <v>1</v>
       </c>
-      <c r="F163">
+      <c r="G163">
         <v>19</v>
       </c>
-      <c r="G163">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H163">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>234</v>
       </c>
       <c r="B164" t="s">
         <v>14</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="s">
+        <v>239</v>
+      </c>
+      <c r="D164">
         <v>389</v>
       </c>
-      <c r="D164">
+      <c r="E164">
         <v>99.77</v>
       </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
       <c r="F164">
         <v>0</v>
       </c>
       <c r="G164">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>235</v>
       </c>
       <c r="B165" t="s">
         <v>14</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="s">
+        <v>240</v>
+      </c>
+      <c r="D165">
         <v>380</v>
       </c>
-      <c r="D165">
+      <c r="E165">
         <v>90</v>
       </c>
-      <c r="E165">
+      <c r="F165">
         <v>0.12</v>
       </c>
-      <c r="F165">
-        <v>0</v>
-      </c>
       <c r="G165">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>179</v>
       </c>
       <c r="B166" t="s">
         <v>14</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="s">
+        <v>237</v>
+      </c>
+      <c r="D166">
         <v>228</v>
       </c>
-      <c r="D166">
+      <c r="E166">
         <v>58</v>
       </c>
-      <c r="E166">
+      <c r="F166">
         <v>20</v>
       </c>
-      <c r="F166">
+      <c r="G166">
         <v>14</v>
       </c>
-      <c r="G166">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H166">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>218</v>
       </c>
       <c r="B167" t="s">
         <v>14</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="s">
+        <v>238</v>
+      </c>
+      <c r="D167">
         <v>450</v>
       </c>
-      <c r="D167">
+      <c r="E167">
         <v>50</v>
       </c>
-      <c r="E167">
+      <c r="F167">
         <v>15</v>
       </c>
-      <c r="F167">
+      <c r="G167">
         <v>5</v>
       </c>
-      <c r="G167">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H167">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>219</v>
       </c>
       <c r="B168" t="s">
         <v>14</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="s">
+        <v>239</v>
+      </c>
+      <c r="D168">
         <v>2</v>
       </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
       <c r="E168">
         <v>0</v>
       </c>
@@ -5176,156 +5693,177 @@
         <v>0</v>
       </c>
       <c r="G168">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>182</v>
       </c>
       <c r="B169" t="s">
         <v>14</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="s">
+        <v>240</v>
+      </c>
+      <c r="D169">
         <v>295</v>
       </c>
-      <c r="D169">
+      <c r="E169">
         <v>23</v>
       </c>
-      <c r="E169">
+      <c r="F169">
         <v>6</v>
       </c>
-      <c r="F169">
+      <c r="G169">
         <v>20</v>
       </c>
-      <c r="G169">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H169">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>183</v>
       </c>
       <c r="B170" t="s">
         <v>14</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="s">
+        <v>237</v>
+      </c>
+      <c r="D170">
         <v>592</v>
       </c>
-      <c r="D170">
+      <c r="E170">
         <v>24</v>
       </c>
-      <c r="E170">
+      <c r="F170">
         <v>8</v>
       </c>
-      <c r="F170">
+      <c r="G170">
         <v>52</v>
       </c>
-      <c r="G170">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H170">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>184</v>
       </c>
       <c r="B171" t="s">
         <v>14</v>
       </c>
-      <c r="C171">
+      <c r="C171" t="s">
+        <v>238</v>
+      </c>
+      <c r="D171">
         <v>566</v>
       </c>
-      <c r="D171">
+      <c r="E171">
         <v>56</v>
       </c>
-      <c r="E171">
+      <c r="F171">
         <v>7</v>
       </c>
-      <c r="F171">
+      <c r="G171">
         <v>34</v>
       </c>
-      <c r="G171">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H171">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>185</v>
       </c>
       <c r="B172" t="s">
         <v>14</v>
       </c>
-      <c r="C172">
+      <c r="C172" t="s">
+        <v>239</v>
+      </c>
+      <c r="D172">
         <v>547</v>
       </c>
-      <c r="D172">
+      <c r="E172">
         <v>53.15</v>
       </c>
-      <c r="E172">
+      <c r="F172">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F172">
+      <c r="G172">
         <v>35.15</v>
       </c>
-      <c r="G172">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H172">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>186</v>
       </c>
       <c r="B173" t="s">
         <v>14</v>
       </c>
-      <c r="C173">
+      <c r="C173" t="s">
+        <v>240</v>
+      </c>
+      <c r="D173">
         <v>288</v>
       </c>
-      <c r="D173">
+      <c r="E173">
         <v>57</v>
       </c>
-      <c r="E173">
+      <c r="F173">
         <v>7</v>
       </c>
-      <c r="F173">
+      <c r="G173">
         <v>4</v>
       </c>
-      <c r="G173">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H173">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>187</v>
       </c>
       <c r="B174" t="s">
         <v>14</v>
       </c>
-      <c r="C174">
+      <c r="C174" t="s">
+        <v>237</v>
+      </c>
+      <c r="D174">
         <v>242</v>
       </c>
-      <c r="D174">
+      <c r="E174">
         <v>63</v>
       </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
       <c r="F174">
         <v>0</v>
       </c>
       <c r="G174">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>188</v>
       </c>
       <c r="B175" t="s">
         <v>14</v>
       </c>
-      <c r="C175">
-        <v>0</v>
+      <c r="C175" t="s">
+        <v>238</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -5337,225 +5875,255 @@
         <v>0</v>
       </c>
       <c r="G175">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>220</v>
       </c>
       <c r="B176" t="s">
         <v>14</v>
       </c>
-      <c r="C176">
+      <c r="C176" t="s">
+        <v>239</v>
+      </c>
+      <c r="D176">
         <v>78</v>
       </c>
-      <c r="D176">
+      <c r="E176">
         <v>14</v>
       </c>
-      <c r="E176">
+      <c r="F176">
         <v>2</v>
       </c>
-      <c r="F176">
-        <v>0</v>
-      </c>
       <c r="G176">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>190</v>
       </c>
       <c r="B177" t="s">
         <v>14</v>
       </c>
-      <c r="C177">
+      <c r="C177" t="s">
+        <v>240</v>
+      </c>
+      <c r="D177">
         <v>163</v>
       </c>
-      <c r="D177">
+      <c r="E177">
         <v>37</v>
       </c>
-      <c r="E177">
+      <c r="F177">
         <v>5</v>
       </c>
-      <c r="F177">
-        <v>0</v>
-      </c>
       <c r="G177">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>191</v>
       </c>
       <c r="B178" t="s">
         <v>14</v>
       </c>
-      <c r="C178">
+      <c r="C178" t="s">
+        <v>237</v>
+      </c>
+      <c r="D178">
         <v>610</v>
       </c>
-      <c r="D178">
+      <c r="E178">
         <v>2</v>
       </c>
-      <c r="E178">
+      <c r="F178">
         <v>1</v>
       </c>
-      <c r="F178">
+      <c r="G178">
         <v>66</v>
       </c>
-      <c r="G178">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H178">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>192</v>
       </c>
       <c r="B179" t="s">
         <v>14</v>
       </c>
-      <c r="C179">
+      <c r="C179" t="s">
+        <v>238</v>
+      </c>
+      <c r="D179">
         <v>180</v>
       </c>
-      <c r="D179">
+      <c r="E179">
         <v>46.66</v>
       </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
       <c r="F179">
         <v>0</v>
       </c>
       <c r="G179">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>193</v>
       </c>
       <c r="B180" t="s">
         <v>14</v>
       </c>
-      <c r="C180">
+      <c r="C180" t="s">
+        <v>239</v>
+      </c>
+      <c r="D180">
         <v>327</v>
       </c>
-      <c r="D180">
+      <c r="E180">
         <v>81</v>
       </c>
-      <c r="E180">
+      <c r="F180">
         <v>0.37</v>
       </c>
-      <c r="F180">
+      <c r="G180">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G180">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H180">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>194</v>
       </c>
       <c r="B181" t="s">
         <v>14</v>
       </c>
-      <c r="C181">
+      <c r="C181" t="s">
+        <v>240</v>
+      </c>
+      <c r="D181">
         <v>150</v>
       </c>
-      <c r="D181">
+      <c r="E181">
         <v>4</v>
       </c>
-      <c r="E181">
+      <c r="F181">
         <v>7</v>
       </c>
-      <c r="F181">
+      <c r="G181">
         <v>11</v>
       </c>
-      <c r="G181">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H181">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>195</v>
       </c>
       <c r="B182" t="s">
         <v>14</v>
       </c>
-      <c r="C182">
+      <c r="C182" t="s">
+        <v>237</v>
+      </c>
+      <c r="D182">
         <v>382</v>
       </c>
-      <c r="D182">
+      <c r="E182">
         <v>77</v>
       </c>
-      <c r="E182">
+      <c r="F182">
         <v>5</v>
       </c>
-      <c r="F182">
+      <c r="G182">
         <v>4</v>
       </c>
-      <c r="G182">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H182">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>196</v>
       </c>
       <c r="B183" t="s">
         <v>14</v>
       </c>
-      <c r="C183">
+      <c r="C183" t="s">
+        <v>238</v>
+      </c>
+      <c r="D183">
         <v>338</v>
       </c>
-      <c r="D183">
+      <c r="E183">
         <v>76</v>
       </c>
-      <c r="E183">
+      <c r="F183">
         <v>7</v>
       </c>
-      <c r="F183">
+      <c r="G183">
         <v>1</v>
       </c>
-      <c r="G183">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H183">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>197</v>
       </c>
       <c r="B184" t="s">
         <v>14</v>
       </c>
-      <c r="C184">
+      <c r="C184" t="s">
+        <v>239</v>
+      </c>
+      <c r="D184">
         <v>31</v>
       </c>
-      <c r="D184">
+      <c r="E184">
         <v>6</v>
       </c>
-      <c r="E184">
+      <c r="F184">
         <v>1</v>
       </c>
-      <c r="F184">
-        <v>0</v>
-      </c>
       <c r="G184">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>198</v>
       </c>
       <c r="B185" t="s">
         <v>14</v>
       </c>
-      <c r="C185">
-        <v>0</v>
+      <c r="C185" t="s">
+        <v>240</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -5567,98 +6135,113 @@
         <v>0</v>
       </c>
       <c r="G185">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>221</v>
       </c>
       <c r="B186" t="s">
         <v>14</v>
       </c>
-      <c r="C186">
+      <c r="C186" t="s">
+        <v>237</v>
+      </c>
+      <c r="D186">
         <v>1</v>
       </c>
-      <c r="D186">
+      <c r="E186">
         <v>0.2</v>
       </c>
-      <c r="E186">
-        <v>0</v>
-      </c>
       <c r="F186">
         <v>0</v>
       </c>
       <c r="G186">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>222</v>
       </c>
       <c r="B187" t="s">
         <v>14</v>
       </c>
-      <c r="C187">
+      <c r="C187" t="s">
+        <v>238</v>
+      </c>
+      <c r="D187">
         <v>1</v>
       </c>
-      <c r="D187">
+      <c r="E187">
         <v>0.2</v>
       </c>
-      <c r="E187">
-        <v>0</v>
-      </c>
       <c r="F187">
         <v>0</v>
       </c>
       <c r="G187">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>201</v>
       </c>
       <c r="B188" t="s">
         <v>14</v>
       </c>
-      <c r="C188">
+      <c r="C188" t="s">
+        <v>239</v>
+      </c>
+      <c r="D188">
         <v>114</v>
       </c>
-      <c r="D188">
+      <c r="E188">
         <v>8</v>
       </c>
-      <c r="E188">
+      <c r="F188">
         <v>3</v>
       </c>
-      <c r="F188">
+      <c r="G188">
         <v>6</v>
       </c>
-      <c r="G188">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H188">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>202</v>
       </c>
       <c r="B189" t="s">
         <v>14</v>
       </c>
-      <c r="C189">
+      <c r="C189" t="s">
+        <v>240</v>
+      </c>
+      <c r="D189">
         <v>264</v>
       </c>
-      <c r="D189">
+      <c r="E189">
         <v>67</v>
       </c>
-      <c r="E189">
+      <c r="F189">
         <v>3</v>
       </c>
-      <c r="F189">
+      <c r="G189">
         <v>0.16</v>
       </c>
-      <c r="G189">
+      <c r="H189">
         <v>100</v>
       </c>
     </row>
